--- a/biology/Botanique/Liste_des_Pins_par_région/Liste_des_Pins_par_région.xlsx
+++ b/biology/Botanique/Liste_des_Pins_par_région/Liste_des_Pins_par_région.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_Pins_par_r%C3%A9gion</t>
+          <t>Liste_des_Pins_par_région</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste classe les espèces de Pins par grandes régions géographiques. Pour la classification taxinomique, voir l'article Taxinomie du genre Pinus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_Pins_par_r%C3%A9gion</t>
+          <t>Liste_des_Pins_par_région</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pins européens
-Pin d'Alep ou Pin de Jérusalem, (Pinus halepensis)
+          <t>Pins européens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pin d'Alep ou Pin de Jérusalem, (Pinus halepensis)
 Pin de Bosnie (Pinus heldreichii, syn. Pinus leucodermis)
 Pin de Calabre ou pin de Turquie ou pin Persan (Pinus brutia)
 Pin des Canaries (Pinus canariensis)
@@ -525,9 +542,43 @@
 Pin des montagnes ou pin mugo, pin couché (Pinus mugo)
 Pin noir (Pinus nigra)
 Pin parasol ou pin pignon, pin pinier (Pinus pinea) ou "Piñemetch" (nom gascon)
-Pin sylvestre (Pinus sylvestris)
-Pins asiatiques
-Pin d'Armand (Pinus armandii)
+Pin sylvestre (Pinus sylvestris)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_Pins_par_région</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Pins_par_r%C3%A9gion</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pins d'Eurasie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pins asiatiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pin d'Armand (Pinus armandii)
 Pin blanc du Japon (Pinus parviflora)
 Pin de Corée (Pinus koraiensis)
 Pin de l'Himalaya (Pinus wallichiana)
@@ -564,34 +615,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_Pins_par_r%C3%A9gion</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_Pins_par_région</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_Pins_par_r%C3%A9gion</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Pins d'Amérique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pins de la côte Est de l'Amérique du Nord
-Pinus banksiana
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pins de la côte Est de l'Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pinus banksiana
 Pinus clausa
 Pinus echinata
 Pinus elliottii
@@ -603,9 +659,43 @@
 Pinus serotina
 Pinus strobus
 Pinus taeda
-Pinus virginiana
-Pins de la côte Ouest de l'Amérique du Nord et du nord du Mexique
-Pinus albicaulis
+Pinus virginiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_Pins_par_région</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Pins_par_r%C3%A9gion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pins d'Amérique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pins de la côte Ouest de l'Amérique du Nord et du nord du Mexique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pinus albicaulis
 Pinus aristata
 Pinus attenuata
 Pinus balfouriana
@@ -624,9 +714,43 @@
 Pinus reflexa
 Pinus remota
 Pinus sabiniana
-Pinus torreyana
-Pins du Sud-Ouest des États-Unis, du Mexique et d'Amérique centrale
-Pinus apulcensis
+Pinus torreyana</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_Pins_par_région</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Pins_par_r%C3%A9gion</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pins d'Amérique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pins du Sud-Ouest des États-Unis, du Mexique et d'Amérique centrale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pinus apulcensis
 Pinus arizonica
 Pinus ayacahuite
 Pinus caribaea
